--- a/curation/draft/crf/crf_specialization_DS.xlsx
+++ b/curation/draft/crf/crf_specialization_DS.xlsx
@@ -5,18 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_github\cdisc-org\COSMoS\curation\draft\collection\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_github\cdisc-org\COSMoS\curation\draft\crf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{397126DF-D246-4619-BB9E-E500AA725335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CDA82DE-CE8C-4A82-96CA-BF3D610466DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="915" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Collection_DS" sheetId="1" r:id="rId1"/>
+    <sheet name="CRF_DS" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Collection_DS!$A$1:$AK$155</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CRF_DS!$A$1:$AK$155</definedName>
   </definedNames>
   <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
@@ -1011,7 +1011,7 @@
     <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="J1" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="R1" sqref="R1"/>
+      <selection pane="bottomLeft" activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
